--- a/Charge Calculator Spreadsheet (Template).xlsx
+++ b/Charge Calculator Spreadsheet (Template).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jedip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD5046C-0AB8-4DD9-AE68-49E2707D1553}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99C2E8-C441-402E-8610-6A9F0720562C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,6 +194,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -519,6 +522,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
+        <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> (LEN($F$20)-LEN(SUBSTITUTE($F$20,B5,"")))</f>
         <v>0</v>
       </c>
       <c r="D5" s="2">
@@ -545,6 +549,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="2">
@@ -564,6 +569,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6">
+        <f xml:space="preserve"> (LEN($F$20)-LEN(SUBSTITUTE($F$20,B7,"")))</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
@@ -583,6 +589,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="6">
+        <f t="shared" ref="C8:C11" si="1" xml:space="preserve"> (LEN($F$20)-LEN(SUBSTITUTE($F$20,B8,"")))</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
@@ -602,6 +609,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="2">
@@ -621,6 +629,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="2">
@@ -640,6 +649,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="2">
@@ -703,9 +713,10 @@
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>